--- a/outputs/ML_Results/mode_MNLR/Germany_other.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ05364161" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ32712849" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ00342044" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28132734" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ55895081" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ23521468" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50798913" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ18247003" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ45650813" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27682872" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ52280198" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ17759501" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ48329543" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ19134248" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ45819104" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13670133" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ40812309" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ08065431" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
